--- a/arranged_dataset/review/cbs_h_review.xlsx
+++ b/arranged_dataset/review/cbs_h_review.xlsx
@@ -1112,10 +1112,10 @@
         <v>1.5</v>
       </c>
       <c r="E2">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F2">
-        <v>0.2081834241434765</v>
+        <v>2.4827955163351</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="100" customHeight="1">
@@ -1129,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F3">
-        <v>0.1464858392135304</v>
+        <v>1.746990118460563</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="100" customHeight="1">
@@ -1146,10 +1146,10 @@
         <v>98.5</v>
       </c>
       <c r="E4">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F4">
-        <v>-0.2081834241434767</v>
+        <v>-2.482795516335103</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="100" customHeight="1">
@@ -1163,10 +1163,10 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>-0.0199</v>
+        <v>0.5236685</v>
       </c>
       <c r="F5">
-        <v>-0.06324327122392412</v>
+        <v>1.664246682257563</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="100" customHeight="1">
@@ -1180,10 +1180,10 @@
         <v>5.5</v>
       </c>
       <c r="E6">
-        <v>0.04975</v>
+        <v>0.5933185</v>
       </c>
       <c r="F6">
-        <v>0.1414816241774983</v>
+        <v>1.687309849940844</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="100" customHeight="1">
@@ -1197,10 +1197,10 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.194342067665783</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="100" customHeight="1">
@@ -1214,10 +1214,10 @@
         <v>11.5</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1.109236058199274</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="100" customHeight="1">
@@ -1231,10 +1231,10 @@
         <v>5.5</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1.545828225763346</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="100" customHeight="1">
@@ -1248,10 +1248,10 @@
         <v>6</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1.495647922807243</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="100" customHeight="1">
@@ -1265,10 +1265,10 @@
         <v>93.5</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F11">
-        <v>-0</v>
+        <v>-1.449240189389391</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="100" customHeight="1">
@@ -1282,10 +1282,10 @@
         <v>12</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1.083022275975408</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="100" customHeight="1">
@@ -1299,10 +1299,10 @@
         <v>16</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.9013605482572672</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="100" customHeight="1">
@@ -1316,10 +1316,10 @@
         <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1.889497750685725</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="100" customHeight="1">
@@ -1333,10 +1333,10 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.5435685</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1.600504279247033</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="100" customHeight="1">
@@ -1350,10 +1350,10 @@
         <v>9.090909090909086</v>
       </c>
       <c r="E16">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F16">
-        <v>0.1053893197063375</v>
+        <v>1.357002044827472</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="100" customHeight="1">
@@ -1367,10 +1367,10 @@
         <v>98</v>
       </c>
       <c r="E17">
-        <v>0.04577</v>
+        <v>0.5893385</v>
       </c>
       <c r="F17">
-        <v>-0.1781286150445233</v>
+        <v>-2.293599536758069</v>
       </c>
     </row>
   </sheetData>

--- a/arranged_dataset/review/cbs_h_review.xlsx
+++ b/arranged_dataset/review/cbs_h_review.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>smiles</t>
   </si>
@@ -22,7 +22,7 @@
     <t>ROMol</t>
   </si>
   <si>
-    <t>inchikey</t>
+    <t>InChIKey</t>
   </si>
   <si>
     <t>er.</t>
@@ -58,61 +58,61 @@
     <t>PJGSXYOJTGTZAV-UHFFFAOYSA-N</t>
   </si>
   <si>
-    <t>c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t>XHLHPRDBBAGVEG-UHFFFAOYSA-N</t>
-  </si>
-  <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C2CCCCC21</t>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>QNXSIUBBGPHDDE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C2CCCCC21</t>
   </si>
   <si>
     <t>KCSZGLKFTDCMAL-UJKGMGNHSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C2CCCC21</t>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C2CCCC21</t>
   </si>
   <si>
     <t>MIVQUQMOPVQLCZ-KCKQSJSWSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C2CCC21</t>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C2CCC21</t>
   </si>
   <si>
     <t>DQHNPZDPPJCZJN-HNHCFKFXSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C2CC21</t>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C2CC21</t>
   </si>
   <si>
     <t>JEISWFNRNZRSHM-KHWBWMQUSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C(OC(=O)C)C1(OC(=O)C)</t>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C(OC(=O)C)C1(OC(=O)C)</t>
   </si>
   <si>
     <t>MGGABTRPYQRCJY-UJKGMGNHSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C2C(CC3)OC3C21</t>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C2C(CC3)OC3C21</t>
   </si>
   <si>
     <t>YFPFCGVFKLMZHJ-UJKGMGNHSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(Cc3ccccc3)C(=O)C(C2)CCC12</t>
+    <t>O=C1N(Cc3ccccc3)[13C](=O)C(C2)CCC12</t>
   </si>
   <si>
     <t>CNUFKAMVZBEBEH-KCKQSJSWSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(C3CCCCC3)C(=O)C2CCCCC21</t>
+    <t>O=C1N(C3CCCCC3)[13C](=O)C2CCCCC21</t>
   </si>
   <si>
     <t>YPXBAEVNAPKDJC-KCKQSJSWSA-N</t>
   </si>
   <si>
-    <t>O=[13C]1N(CCC#N)C(=O)C2CCCCC21</t>
+    <t>O=C1N(CCC#N)[13C](=O)C2CCCCC21</t>
   </si>
   <si>
     <t>XNMPLBFMFBFORN-DETAZLGJSA-N</t>
@@ -128,6 +128,126 @@
   </si>
   <si>
     <t>HXNNMNZRVREEDV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C2=CC=CC=C2)/C=C/C1=CC=CC=C1</t>
+  </si>
+  <si>
+    <t>DQFBYFPFKXHELB-VAWYXSNFSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccc(C(F)(F)F)cc2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OHTYZZYAMUVKQS-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(Cc1ccccc1)C</t>
+  </si>
+  <si>
+    <t>QCCDLTOVEPVEJK-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(COC)c1ccccc1</t>
+  </si>
+  <si>
+    <t>YRNDGUSDBCARGC-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)C(C)C</t>
+  </si>
+  <si>
+    <t>BSMGLVDZZMBWQB-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccccc1)CCCl</t>
+  </si>
+  <si>
+    <t>KTJRGPZVSKWRTJ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c2ccc(C)cc2)c1ccccc1</t>
+  </si>
+  <si>
+    <t>WXPWZZHELZEVPO-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C2=CC=CC=C2)/C=C/C</t>
+  </si>
+  <si>
+    <t>FUJZJBCWPIOHHN-QHHAFSJGSA-N</t>
+  </si>
+  <si>
+    <t>O=C1Cc2ccccc2CC1</t>
+  </si>
+  <si>
+    <t>KCKZIWSINLBROE-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCCCC)C</t>
+  </si>
+  <si>
+    <t>CATSNJVOTSVZJV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1c(F)cccc1)C</t>
+  </si>
+  <si>
+    <t>QMATYTFXDIWACW-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1CCCCC1)C</t>
+  </si>
+  <si>
+    <t>RIFKADJTWUGDOV-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CC)C</t>
+  </si>
+  <si>
+    <t>ZWEHNKRNPOVVGH-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(CCC)C</t>
+  </si>
+  <si>
+    <t>XNLICIUVMPYHGG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1c(F)c(F)c(F)c(F)c1(F))c2ccccc2</t>
+  </si>
+  <si>
+    <t>HCCPWBWOSASKLG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1ccc(OC)cc1)c2ccc([N+]([O-])=O)cc2</t>
+  </si>
+  <si>
+    <t>DXVSAELNVPXMSQ-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C1CC1)C(C)C</t>
+  </si>
+  <si>
+    <t>CKABARUORCUAGG-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(C(Cl)(Cl)Cl)c1ccccc1</t>
+  </si>
+  <si>
+    <t>OAMHTTBNEJBIKA-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1c(O[Si](C)(C)C(C)(C)C)cccc1)CC(=C)C</t>
+  </si>
+  <si>
+    <t>LQVURUFQDSLJNY-UHFFFAOYSA-N</t>
+  </si>
+  <si>
+    <t>O=C(c1c(O[Si](C)(C)C(C)(C)C)ccc(OC)c1)CC(=C)C</t>
+  </si>
+  <si>
+    <t>JBDNMZBANWEYED-UHFFFAOYSA-N</t>
   </si>
 </sst>
 </file>
@@ -775,6 +895,766 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="19192875"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="20459700"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="21726525"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="22993350"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="24260175"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="25527000"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="26793825"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="28060650"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="29327475"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="30594300"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="31861125"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="33127950"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="34394775"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="35661600"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="36928425"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Picture 31" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="38195250"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Picture 32" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="39462075"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Picture 33" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="40728900"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Picture 34" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="41995725"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Picture 35" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="43262550"/>
+          <a:ext cx="952500" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>952500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Picture 36" descr="f"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="44529375"/>
           <a:ext cx="952500" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1072,7 +1952,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1373,6 +2253,346 @@
         <v>-2.293599536758069</v>
       </c>
     </row>
+    <row r="18" spans="1:6" ht="100" customHeight="1">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18">
+        <v>67.5</v>
+      </c>
+      <c r="E18">
+        <v>0.5893385</v>
+      </c>
+      <c r="F18">
+        <v>-0.4307401479533465</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100" customHeight="1">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>69.5</v>
+      </c>
+      <c r="E19">
+        <v>0.5893385</v>
+      </c>
+      <c r="F19">
+        <v>-0.4853792292392393</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="100" customHeight="1">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20">
+        <v>34.5</v>
+      </c>
+      <c r="E20">
+        <v>0.5893385</v>
+      </c>
+      <c r="F20">
+        <v>0.3778195013997899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="100" customHeight="1">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>97.5</v>
+      </c>
+      <c r="E21">
+        <v>0.5893385</v>
+      </c>
+      <c r="F21">
+        <v>-2.159077925187578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="100" customHeight="1">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>0.5893385</v>
+      </c>
+      <c r="F22">
+        <v>-0.2885096167869882</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="100" customHeight="1">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+      <c r="E23">
+        <v>0.5893385</v>
+      </c>
+      <c r="F23">
+        <v>1.735271251323481</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="100" customHeight="1">
+      <c r="A24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24">
+        <v>59</v>
+      </c>
+      <c r="E24">
+        <v>0.5893385</v>
+      </c>
+      <c r="F24">
+        <v>-0.2144988094518142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="100" customHeight="1">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25">
+        <v>14.5</v>
+      </c>
+      <c r="E25">
+        <v>0.5893385</v>
+      </c>
+      <c r="F25">
+        <v>1.045703214393459</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="100" customHeight="1">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26">
+        <v>52.4</v>
+      </c>
+      <c r="E26">
+        <v>0.5893385</v>
+      </c>
+      <c r="F26">
+        <v>-0.05662000691427274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="100" customHeight="1">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27">
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <v>0.5893385</v>
+      </c>
+      <c r="F27">
+        <v>0.4173607197596296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="100" customHeight="1">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>4.200000000000003</v>
+      </c>
+      <c r="E28">
+        <v>0.6331184999999999</v>
+      </c>
+      <c r="F28">
+        <v>1.979874345694105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="100" customHeight="1">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>9</v>
+      </c>
+      <c r="E29">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F29">
+        <v>1.487825743455794</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="100" customHeight="1">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="E30">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F30">
+        <v>0.8914822353638262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="100" customHeight="1">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F31">
+        <v>0.9751153054667024</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="100" customHeight="1">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32">
+        <v>96</v>
+      </c>
+      <c r="E32">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F32">
+        <v>-2.043706309601107</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="100" customHeight="1">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" t="s">
+        <v>69</v>
+      </c>
+      <c r="D33">
+        <v>24</v>
+      </c>
+      <c r="E33">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.7412518834368126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="100" customHeight="1">
+      <c r="A34" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34">
+        <v>4.5</v>
+      </c>
+      <c r="E34">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F34">
+        <v>1.964605681853067</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="100" customHeight="1">
+      <c r="A35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35">
+        <v>36.5</v>
+      </c>
+      <c r="E35">
+        <v>0.6430684999999999</v>
+      </c>
+      <c r="F35">
+        <v>0.3560848062781623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="100" customHeight="1">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36">
+        <v>2.5</v>
+      </c>
+      <c r="E36">
+        <v>0.4241684999999999</v>
+      </c>
+      <c r="F36">
+        <v>1.553967448096343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="100" customHeight="1">
+      <c r="A37" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>0.4241684999999999</v>
+      </c>
+      <c r="F37">
+        <v>1.24893826513456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
